--- a/Copy of 田奇-计算机-选校表-叶孜.xlsx
+++ b/Copy of 田奇-计算机-选校表-叶孜.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i332388/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i332388/Documents/申请相关/application/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>No.</t>
   </si>
@@ -348,12 +348,6 @@
     <t>http://www.ece.cmu.edu/programs-admissions/ms-in-se/index.html</t>
   </si>
   <si>
-    <t>http://ece.ucsd.edu/graduate/machine-learning-and-data-science</t>
-  </si>
-  <si>
-    <t>Machine Learning and Data Science</t>
-  </si>
-  <si>
     <t>Purdue</t>
   </si>
   <si>
@@ -370,6 +364,9 @@
   </si>
   <si>
     <t>Johns Hopkins</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
   </si>
 </sst>
 </file>
@@ -591,6 +588,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,30 +643,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -978,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -988,7 +985,7 @@
     <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
@@ -1004,86 +1001,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="21" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="10" t="s">
+      <c r="S1" s="20"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
       <c r="R2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1093,7 +1090,7 @@
       <c r="T2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="10"/>
+      <c r="U2" s="18"/>
     </row>
     <row r="3" spans="1:21" ht="98" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -1423,254 +1420,247 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="25" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="12" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="10">
         <v>42</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="24">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="11">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="25" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="10">
         <v>12.15</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="24"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:21" s="25" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="10">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="24"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:21" s="25" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="B14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="10">
         <v>12.15</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="24"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11"/>
     </row>
-    <row r="15" spans="1:21" s="25" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="12" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="B15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="10">
         <v>12.15</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="24"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="11"/>
     </row>
-    <row r="16" spans="1:21" s="25" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="12" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="E16" s="10">
         <v>12.2</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="11"/>
+    </row>
+    <row r="17" spans="1:20" s="14" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="24"/>
-    </row>
-    <row r="17" spans="1:20" s="27" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
-        <v>15</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="27">
+      <c r="E17" s="14">
         <v>3.1</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="16"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="R1:T1"/>
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1685,6 +1675,11 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="R1:T1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/Copy of 田奇-计算机-选校表-叶孜.xlsx
+++ b/Copy of 田奇-计算机-选校表-叶孜.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t>No.</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>http://www.informatics.uci.edu/grad/ms-software-engineering/</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -606,6 +609,36 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -615,34 +648,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -975,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1001,86 +1007,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="16" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="18" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="28" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
       <c r="R2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1090,7 +1096,7 @@
       <c r="T2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="18"/>
+      <c r="U2" s="28"/>
     </row>
     <row r="3" spans="1:21" ht="98" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -1420,31 +1426,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="12" customFormat="1" ht="70" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+    <row r="11" spans="1:21" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="10">
-        <v>42</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>60</v>
+      <c r="C11" s="10"/>
+      <c r="D11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="10">
+        <v>12.15</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>58</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -1457,29 +1457,33 @@
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="11">
-        <v>29</v>
-      </c>
+      <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:21" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="12" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="C12" s="10">
+        <v>42</v>
+      </c>
       <c r="D12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="10">
-        <v>12.15</v>
+        <v>59</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -1492,7 +1496,9 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="11"/>
+      <c r="U12" s="11">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:21" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
@@ -1503,13 +1509,13 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="10">
-        <v>1.1499999999999999</v>
+        <v>12.15</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1532,16 +1538,18 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="13" t="s">
-        <v>73</v>
+      <c r="D14" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E14" s="10">
-        <v>12.15</v>
-      </c>
-      <c r="F14" s="10"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -1636,31 +1644,34 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="24"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1677,19 +1688,16 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="R1:T1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1"/>
     <hyperlink ref="G4" r:id="rId2"/>
     <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="F11" r:id="rId4"/>
+    <hyperlink ref="F12" r:id="rId4"/>
     <hyperlink ref="F10" r:id="rId5"/>
-    <hyperlink ref="G11" r:id="rId6"/>
-    <hyperlink ref="H11" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId6"/>
+    <hyperlink ref="H12" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
